--- a/Документы/Kozlov_Finansovaya_model last ver.xlsx
+++ b/Документы/Kozlov_Finansovaya_model last ver.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Csar\Desktop\Стартап как диплом 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Games\На всякий пожарный\VKR\Документы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B26EFEC-29FD-4B57-9ECD-48977E38467C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B243D18-CE90-4B3D-93D4-0F2F2AD79DC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные для расчетов" sheetId="1" r:id="rId1"/>
@@ -555,7 +555,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -627,9 +627,6 @@
     <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -641,12 +638,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="17" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1273,7 +1272,7 @@
       <c r="B4" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="57" t="s">
         <v>35</v>
       </c>
       <c r="D4" s="22" t="s">
@@ -1285,13 +1284,13 @@
       <c r="F4" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="58" t="s">
+      <c r="G4" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="H4" s="58" t="s">
+      <c r="H4" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="I4" s="58" t="s">
+      <c r="I4" s="57" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1317,11 +1316,11 @@
       <c r="G5" s="51">
         <v>36</v>
       </c>
-      <c r="H5" s="59">
+      <c r="H5" s="58">
         <f>100%/G5</f>
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="I5" s="60">
+      <c r="I5" s="59">
         <f>F5*H5</f>
         <v>1388.8888888888889</v>
       </c>
@@ -1348,10 +1347,10 @@
       <c r="G6" s="51">
         <v>1</v>
       </c>
-      <c r="H6" s="59">
+      <c r="H6" s="58">
         <v>1</v>
       </c>
-      <c r="I6" s="60">
+      <c r="I6" s="59">
         <f t="shared" ref="I6" si="0">F6*H6</f>
         <v>4000</v>
       </c>
@@ -1464,8 +1463,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B21" s="61" t="s">
+    <row r="21" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B21" s="60" t="s">
         <v>39</v>
       </c>
       <c r="C21" s="18">
@@ -1476,7 +1475,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="60" t="s">
         <v>71</v>
       </c>
       <c r="C22" s="18">
@@ -1515,7 +1514,7 @@
       <c r="A27" s="18">
         <v>2</v>
       </c>
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="60" t="s">
         <v>41</v>
       </c>
       <c r="C27" s="18">
@@ -1527,7 +1526,7 @@
       <c r="A28" s="18">
         <v>3</v>
       </c>
-      <c r="B28" s="61" t="s">
+      <c r="B28" s="60" t="s">
         <v>42</v>
       </c>
       <c r="C28" s="18">
@@ -1545,7 +1544,7 @@
     </row>
     <row r="30" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
-      <c r="B30" s="61" t="s">
+      <c r="B30" s="60" t="s">
         <v>40</v>
       </c>
       <c r="C30" s="18">
@@ -1688,11 +1687,11 @@
       <c r="AG2" s="30">
         <v>32</v>
       </c>
-      <c r="AH2" s="56" t="s">
+      <c r="AH2" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
+      <c r="AI2" s="66"/>
+      <c r="AJ2" s="66"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
@@ -5470,13 +5469,13 @@
       <c r="A44" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="57">
+      <c r="B44" s="56">
         <v>2023</v>
       </c>
-      <c r="C44" s="57">
+      <c r="C44" s="56">
         <v>2024</v>
       </c>
-      <c r="D44" s="57">
+      <c r="D44" s="56">
         <v>2025</v>
       </c>
     </row>
@@ -5557,8 +5556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AG14"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5572,29 +5571,29 @@
       </c>
     </row>
     <row r="2" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62">
+      <c r="A2" s="61"/>
+      <c r="B2" s="61">
         <v>1</v>
       </c>
-      <c r="C2" s="62">
+      <c r="C2" s="61">
         <v>2</v>
       </c>
-      <c r="D2" s="62">
+      <c r="D2" s="61">
         <v>3</v>
       </c>
-      <c r="E2" s="62">
+      <c r="E2" s="61">
         <v>4</v>
       </c>
-      <c r="F2" s="62">
+      <c r="F2" s="61">
         <v>5</v>
       </c>
-      <c r="G2" s="62">
+      <c r="G2" s="61">
         <v>6</v>
       </c>
-      <c r="H2" s="62">
+      <c r="H2" s="61">
         <v>7</v>
       </c>
-      <c r="I2" s="62">
+      <c r="I2" s="61">
         <v>8</v>
       </c>
       <c r="J2" s="1">
@@ -5672,28 +5671,28 @@
     </row>
     <row r="3" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="50"/>
-      <c r="B3" s="63">
+      <c r="B3" s="24">
         <v>45047</v>
       </c>
-      <c r="C3" s="63">
+      <c r="C3" s="24">
         <v>45078</v>
       </c>
-      <c r="D3" s="63">
+      <c r="D3" s="24">
         <v>45108</v>
       </c>
-      <c r="E3" s="63">
+      <c r="E3" s="24">
         <v>45139</v>
       </c>
-      <c r="F3" s="63">
+      <c r="F3" s="24">
         <v>45170</v>
       </c>
-      <c r="G3" s="63">
+      <c r="G3" s="24">
         <v>45200</v>
       </c>
-      <c r="H3" s="63">
+      <c r="H3" s="24">
         <v>45231</v>
       </c>
-      <c r="I3" s="63">
+      <c r="I3" s="24">
         <v>45261</v>
       </c>
       <c r="J3" s="24">
@@ -5773,34 +5772,34 @@
       <c r="A4" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="64">
-        <v>0</v>
-      </c>
-      <c r="C4" s="64">
+      <c r="B4" s="62">
+        <v>0</v>
+      </c>
+      <c r="C4" s="62">
         <f>B14</f>
         <v>13.13000000003376</v>
       </c>
-      <c r="D4" s="64">
+      <c r="D4" s="62">
         <f t="shared" ref="D4:AG4" si="0">C14</f>
         <v>22513.380000000034</v>
       </c>
-      <c r="E4" s="64">
+      <c r="E4" s="62">
         <f t="shared" si="0"/>
         <v>40493.630000000034</v>
       </c>
-      <c r="F4" s="64">
+      <c r="F4" s="62">
         <f t="shared" si="0"/>
         <v>62993.880000000034</v>
       </c>
-      <c r="G4" s="64">
+      <c r="G4" s="62">
         <f t="shared" si="0"/>
         <v>80974.130000000034</v>
       </c>
-      <c r="H4" s="64">
+      <c r="H4" s="62">
         <f t="shared" si="0"/>
         <v>98954.380000000034</v>
       </c>
-      <c r="I4" s="64">
+      <c r="I4" s="62">
         <f t="shared" si="0"/>
         <v>121454.63000000003</v>
       </c>
@@ -5902,38 +5901,38 @@
       </c>
     </row>
     <row r="5" spans="1:33" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="66">
+      <c r="B5" s="64">
         <f>B6-B7</f>
         <v>21053.85</v>
       </c>
-      <c r="C5" s="66">
+      <c r="C5" s="64">
         <f t="shared" ref="C5:AG5" si="1">C6-C7</f>
         <v>22500.25</v>
       </c>
-      <c r="D5" s="66">
+      <c r="D5" s="64">
         <f t="shared" si="1"/>
         <v>17980.25</v>
       </c>
-      <c r="E5" s="66">
+      <c r="E5" s="64">
         <f t="shared" si="1"/>
         <v>22500.25</v>
       </c>
-      <c r="F5" s="66">
+      <c r="F5" s="64">
         <f t="shared" si="1"/>
         <v>17980.25</v>
       </c>
-      <c r="G5" s="66">
+      <c r="G5" s="64">
         <f t="shared" si="1"/>
         <v>17980.25</v>
       </c>
-      <c r="H5" s="66">
+      <c r="H5" s="64">
         <f t="shared" si="1"/>
         <v>22500.25</v>
       </c>
-      <c r="I5" s="66">
+      <c r="I5" s="64">
         <f t="shared" si="1"/>
         <v>22200.25</v>
       </c>
@@ -6035,38 +6034,38 @@
       </c>
     </row>
     <row r="6" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="64">
+      <c r="B6" s="62">
         <f>'План ДР'!B4</f>
         <v>36160</v>
       </c>
-      <c r="C6" s="64">
+      <c r="C6" s="62">
         <f>'План ДР'!C4</f>
         <v>36160</v>
       </c>
-      <c r="D6" s="64">
+      <c r="D6" s="62">
         <f>'План ДР'!D4</f>
         <v>31640</v>
       </c>
-      <c r="E6" s="64">
+      <c r="E6" s="62">
         <f>'План ДР'!E4</f>
         <v>36160</v>
       </c>
-      <c r="F6" s="64">
+      <c r="F6" s="62">
         <f>'План ДР'!F4</f>
         <v>31640</v>
       </c>
-      <c r="G6" s="64">
+      <c r="G6" s="62">
         <f>'План ДР'!G4</f>
         <v>31640</v>
       </c>
-      <c r="H6" s="64">
+      <c r="H6" s="62">
         <f>'План ДР'!H4</f>
         <v>36160</v>
       </c>
-      <c r="I6" s="64">
+      <c r="I6" s="62">
         <f>'План ДР'!I4</f>
         <v>36160</v>
       </c>
@@ -6168,38 +6167,38 @@
       </c>
     </row>
     <row r="7" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="64">
+      <c r="B7" s="62">
         <f>'План ДР'!B16-'План ДР'!B21+'План ДР'!B35</f>
         <v>15106.15</v>
       </c>
-      <c r="C7" s="64">
+      <c r="C7" s="62">
         <f>'План ДР'!C16-'План ДР'!C21</f>
         <v>13659.75</v>
       </c>
-      <c r="D7" s="64">
+      <c r="D7" s="62">
         <f>'План ДР'!D16-'План ДР'!D21</f>
         <v>13659.75</v>
       </c>
-      <c r="E7" s="64">
+      <c r="E7" s="62">
         <f>'План ДР'!E16-'План ДР'!E21</f>
         <v>13659.75</v>
       </c>
-      <c r="F7" s="64">
+      <c r="F7" s="62">
         <f>'План ДР'!F16-'План ДР'!F21</f>
         <v>13659.75</v>
       </c>
-      <c r="G7" s="64">
+      <c r="G7" s="62">
         <f>'План ДР'!G16-'План ДР'!G21</f>
         <v>13659.75</v>
       </c>
-      <c r="H7" s="64">
+      <c r="H7" s="62">
         <f>'План ДР'!H16-'План ДР'!H21</f>
         <v>13659.75</v>
       </c>
-      <c r="I7" s="64">
+      <c r="I7" s="62">
         <f>'План ДР'!I16-'План ДР'!I21</f>
         <v>13959.75</v>
       </c>
@@ -6301,38 +6300,38 @@
       </c>
     </row>
     <row r="8" spans="1:33" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="66">
+      <c r="B8" s="64">
         <f>B9-B10</f>
         <v>-280770.71999999997</v>
       </c>
-      <c r="C8" s="66">
+      <c r="C8" s="64">
         <f t="shared" ref="C8:AG8" si="2">C9-C10</f>
         <v>0</v>
       </c>
-      <c r="D8" s="66">
+      <c r="D8" s="64">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E8" s="66">
+      <c r="E8" s="64">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F8" s="66">
+      <c r="F8" s="64">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G8" s="66">
+      <c r="G8" s="64">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H8" s="66">
+      <c r="H8" s="64">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I8" s="66">
+      <c r="I8" s="64">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6434,31 +6433,31 @@
       </c>
     </row>
     <row r="9" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="64">
-        <v>0</v>
-      </c>
-      <c r="C9" s="64">
-        <v>0</v>
-      </c>
-      <c r="D9" s="64">
-        <v>0</v>
-      </c>
-      <c r="E9" s="64">
-        <v>0</v>
-      </c>
-      <c r="F9" s="64">
-        <v>0</v>
-      </c>
-      <c r="G9" s="64">
-        <v>0</v>
-      </c>
-      <c r="H9" s="64">
-        <v>0</v>
-      </c>
-      <c r="I9" s="64">
+      <c r="B9" s="62">
+        <v>0</v>
+      </c>
+      <c r="C9" s="62">
+        <v>0</v>
+      </c>
+      <c r="D9" s="62">
+        <v>0</v>
+      </c>
+      <c r="E9" s="62">
+        <v>0</v>
+      </c>
+      <c r="F9" s="62">
+        <v>0</v>
+      </c>
+      <c r="G9" s="62">
+        <v>0</v>
+      </c>
+      <c r="H9" s="62">
+        <v>0</v>
+      </c>
+      <c r="I9" s="62">
         <v>0</v>
       </c>
       <c r="J9" s="15">
@@ -6535,32 +6534,32 @@
       </c>
     </row>
     <row r="10" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="64">
+      <c r="B10" s="62">
         <f>'Расчет инвест капитала'!C30</f>
         <v>280770.71999999997</v>
       </c>
-      <c r="C10" s="64">
-        <v>0</v>
-      </c>
-      <c r="D10" s="64">
-        <v>0</v>
-      </c>
-      <c r="E10" s="64">
-        <v>0</v>
-      </c>
-      <c r="F10" s="64">
-        <v>0</v>
-      </c>
-      <c r="G10" s="64">
-        <v>0</v>
-      </c>
-      <c r="H10" s="64">
-        <v>0</v>
-      </c>
-      <c r="I10" s="64">
+      <c r="C10" s="62">
+        <v>0</v>
+      </c>
+      <c r="D10" s="62">
+        <v>0</v>
+      </c>
+      <c r="E10" s="62">
+        <v>0</v>
+      </c>
+      <c r="F10" s="62">
+        <v>0</v>
+      </c>
+      <c r="G10" s="62">
+        <v>0</v>
+      </c>
+      <c r="H10" s="62">
+        <v>0</v>
+      </c>
+      <c r="I10" s="62">
         <v>0</v>
       </c>
       <c r="J10" s="15">
@@ -6637,38 +6636,38 @@
       </c>
     </row>
     <row r="11" spans="1:33" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="66">
+      <c r="B11" s="64">
         <f>B12-B13</f>
         <v>259730</v>
       </c>
-      <c r="C11" s="66">
+      <c r="C11" s="64">
         <f t="shared" ref="C11:AG11" si="3">C12-C13</f>
         <v>0</v>
       </c>
-      <c r="D11" s="66">
+      <c r="D11" s="64">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E11" s="66">
+      <c r="E11" s="64">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F11" s="66">
+      <c r="F11" s="64">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G11" s="66">
+      <c r="G11" s="64">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H11" s="66">
+      <c r="H11" s="64">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I11" s="66">
+      <c r="I11" s="64">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6770,19 +6769,19 @@
       </c>
     </row>
     <row r="12" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="64">
+      <c r="B12" s="62">
         <v>259730</v>
       </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
@@ -6809,19 +6808,19 @@
       <c r="AG12" s="15"/>
     </row>
     <row r="13" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="67" t="s">
+      <c r="A13" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="64">
-        <v>0</v>
-      </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
+      <c r="B13" s="62">
+        <v>0</v>
+      </c>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
@@ -6851,35 +6850,35 @@
       <c r="A14" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="64">
+      <c r="B14" s="62">
         <f>B4+B5+B8+B11</f>
         <v>13.13000000003376</v>
       </c>
-      <c r="C14" s="64">
+      <c r="C14" s="62">
         <f t="shared" ref="C14:AG14" si="4">C4+C5+C8+C11</f>
         <v>22513.380000000034</v>
       </c>
-      <c r="D14" s="64">
+      <c r="D14" s="62">
         <f>D4+D5+D8+D11</f>
         <v>40493.630000000034</v>
       </c>
-      <c r="E14" s="64">
+      <c r="E14" s="62">
         <f t="shared" si="4"/>
         <v>62993.880000000034</v>
       </c>
-      <c r="F14" s="64">
+      <c r="F14" s="62">
         <f t="shared" si="4"/>
         <v>80974.130000000034</v>
       </c>
-      <c r="G14" s="64">
+      <c r="G14" s="62">
         <f t="shared" si="4"/>
         <v>98954.380000000034</v>
       </c>
-      <c r="H14" s="64">
+      <c r="H14" s="62">
         <f t="shared" si="4"/>
         <v>121454.63000000003</v>
       </c>
-      <c r="I14" s="64">
+      <c r="I14" s="62">
         <f t="shared" si="4"/>
         <v>143654.88000000003</v>
       </c>
@@ -6989,13 +6988,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AG29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.28515625" customWidth="1"/>
+    <col min="1" max="1" width="52.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="10.140625" customWidth="1"/>
     <col min="16" max="16" width="11.85546875" customWidth="1"/>
